--- a/activity/selection/static/output.xlsx
+++ b/activity/selection/static/output.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="0000FF00"/>
         <bgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -61,12 +67,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,22 +500,22 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-02-10</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-02-10</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>13:30</t>
         </is>
       </c>
     </row>
@@ -518,32 +525,32 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Thunder Express</t>
+          <t>Midnight Serenity</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>EE12</t>
+          <t>AD24</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-02-10</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>2024-02-23</t>
+          <t>2024-02-10</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>14:15</t>
         </is>
       </c>
     </row>
@@ -553,32 +560,32 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Midnight Serenity</t>
+          <t>Mystic Frontier</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>AD24</t>
+          <t>XC12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2024-02-23</t>
+          <t>2024-05-11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2024-02-23</t>
+          <t>2024-05-11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23:50</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>23:59</t>
+          <t>23:07</t>
         </is>
       </c>
     </row>
@@ -588,137 +595,209 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Iron Phoenix</t>
+          <t>Deccan Express</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>TP58</t>
+          <t>KV83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2024-02-25</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2024-02-25</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>00:59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>12:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Mystic Frontier</t>
+          <t>Iron Phoenix</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>XC12</t>
+          <t>TP58</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2024-05-11</t>
+          <t>2024-02-10</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2024-05-11</t>
+          <t>2024-02-10</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23:07</t>
+          <t>13:30</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Mystic Frontier</t>
+          <t>Aurora Express</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>XC12</t>
+          <t>AK72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-05-11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-05-11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>00:59</t>
+          <t>23:05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12:59</t>
+          <t>23:10</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
+          <t>Starlight Express</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>SS88</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-10</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-10</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>13:20</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
           <t>Aurora Express</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>TP58</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2024-05-11</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2024-05-11</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>23:05</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>23:10</t>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>AK72</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-10</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-10</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>14:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Remaining</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thunder Express	</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>EE12</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>2024-02-08</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>12:37</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>12:37</t>
         </is>
       </c>
     </row>
